--- a/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_2.xlsx
+++ b/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B417F4-76F2-4CED-965C-2CAE7C28B5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6E60F-9558-4A90-ADB7-6C28448AD05C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Hohenwarter Philipp</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Statusprotokoll, Zeitplan, Change-Management</t>
+  </si>
+  <si>
+    <t>Front-End Recherche, Fixing von kleinen Fehlern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erweiterung Frontend/ SinglePage Architecture </t>
+  </si>
+  <si>
+    <t>Frontend - Recherche, Login</t>
+  </si>
+  <si>
+    <t>Erweiterung Frontend Struktur</t>
   </si>
 </sst>
 </file>
@@ -212,6 +224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,7 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,7 +551,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,11 +562,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -586,7 +598,9 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -618,7 +632,9 @@
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -650,7 +666,9 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -682,7 +700,9 @@
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -714,67 +734,69 @@
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
